--- a/experiment result/64_0.4_40_zs30_kappa_lp.xlsx
+++ b/experiment result/64_0.4_40_zs30_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0416285354088675</v>
+        <v>0.009705246643278589</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03655122377726793</v>
+        <v>0.002035461262277845</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0484105614068233</v>
+        <v>0.006773072902234499</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0505742263163587</v>
+        <v>0.01196448710831052</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03450369534557285</v>
+        <v>0.005181944633107416</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03938349046061874</v>
+        <v>0.004328871266378116</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04129620253198169</v>
+        <v>0.00200002057244297</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03666791989053826</v>
+        <v>0.004644449711720032</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04740963150631542</v>
+        <v>0.004726160055994822</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07128181946536485</v>
+        <v>0.03065855216001044</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06811743753802341</v>
+        <v>0.01239015280150038</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.07691764675566017</v>
+        <v>0.0424636733891124</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.06123952531540788</v>
+        <v>0.004038357624558575</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06386436186900138</v>
+        <v>0.004011640159019766</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04890802942784224</v>
+        <v>0.003999951147896679</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06089725186349933</v>
+        <v>0.005807720071098718</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0665823755551451</v>
+        <v>0.00818504284830779</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03575465439595697</v>
+        <v>0.001267125740310474</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05115156674584601</v>
+        <v>0.008641453078428025</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06958531196147036</v>
+        <v>0.004793239763982602</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.03373764587932197</v>
+        <v>0.003292463809330956</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.03988300512632992</v>
+        <v>0.002352119256452021</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.05394014138251109</v>
+        <v>0.01147646835409773</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02910506602822806</v>
+        <v>0.003532236032696894</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02739769674666408</v>
+        <v>0.0017810784537582</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06250493838545856</v>
+        <v>0.0129563977025925</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04790667855510514</v>
+        <v>0.004679083795395047</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02967151650585405</v>
+        <v>0.00888727365520788</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04628969539544518</v>
+        <v>0.009832250187763984</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.06618774158509065</v>
+        <v>0.008096932545465776</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02981990986823985</v>
+        <v>0.001857765156766375</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03329040025385876</v>
+        <v>0.0008652298934261957</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.07313213896000169</v>
+        <v>0.009236965939675951</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.04935247956091407</v>
+        <v>0.001621960504120526</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02670771458103294</v>
+        <v>0.004390570489232087</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.05820621865108988</v>
+        <v>0.00473377316491828</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03788648239390729</v>
+        <v>0.00362808196225419</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.05686070416076855</v>
+        <v>0.00229630093535633</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02811909411499956</v>
+        <v>0.005486062713169043</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06594456372996173</v>
+        <v>0.02736174891218518</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.05875089876326417</v>
+        <v>0.006877613819187589</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04655445197225745</v>
+        <v>0.005335447273500286</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02633995541331239</v>
+        <v>0.005247632874231353</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02579470066668713</v>
+        <v>0.003952300620408871</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0290016671587131</v>
+        <v>0.003153785522740665</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08879784936100396</v>
+        <v>0.008843338182927717</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.04871156953997374</v>
+        <v>0.009106731544913382</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.03246513271946988</v>
+        <v>0.004125903285112667</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06846917444385638</v>
+        <v>0.00564500541664025</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.04073146764550427</v>
+        <v>0.0005952418147086175</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.04727242840054283</v>
+        <v>0.003792081131470227</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.03906223008178691</v>
+        <v>0.003911250269906228</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01568084573907159</v>
+        <v>4.474023516614689e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02421675105821947</v>
+        <v>0.0006584681995268173</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.04851924392689185</v>
+        <v>0.00419960226746609</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.04222227948349943</v>
+        <v>0.006464665113546366</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02776631851473062</v>
+        <v>0.001853129806193487</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.04705692369433174</v>
+        <v>0.003138451934645143</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.05282948568758137</v>
+        <v>0.007100995964296178</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0342774899033857</v>
+        <v>0.0006565456042750136</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.01396786924755793</v>
+        <v>0.0003375171464068968</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.03519936063600034</v>
+        <v>0.006259088720738919</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.05360190152670678</v>
+        <v>0.02009366897064321</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03017901144254221</v>
+        <v>0.001240507785642872</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.05129588700908141</v>
+        <v>0.01022650597383204</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.04427207932395835</v>
+        <v>0.007398355936386561</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.04070336340724569</v>
+        <v>0.004208662171304499</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.03287095836411417</v>
+        <v>0.002774947098143354</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.03007810401250375</v>
+        <v>0.001357868561849544</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02760918596399201</v>
+        <v>0.00337170685419941</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.05056254068611381</v>
+        <v>0.00258349641609402</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0316149740188891</v>
+        <v>0.001111572019077224</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.06089152928963466</v>
+        <v>0.008938486734731145</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.03885801466937911</v>
+        <v>0.0046036935625697</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.03458056552157217</v>
+        <v>0.01538054626879752</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04207544893108055</v>
+        <v>0.01286550753691034</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.03693694105162423</v>
+        <v>0.0006780962866647812</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.03050725746751963</v>
+        <v>0.005863922905836275</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.03749425184131603</v>
+        <v>0.00868090185754313</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.04154309076932609</v>
+        <v>0.004168544463849485</v>
       </c>
     </row>
   </sheetData>
